--- a/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -9,11 +9,6 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,44 +523,150 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
       <c r="B2" t="n">
+        <v>513</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Hồng Nho</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>17730000</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14730000</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>14730000</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>3000000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14730000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14730000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -578,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,545 +788,237 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>509</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Ngọc Vàng</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>512</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ngô Thị Cẩm Phương</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,48 +624,134 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>525</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>KCH</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>14730000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14730000</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>21430000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21430000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18430000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18430000</v>
+      </c>
+      <c r="P4" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V4" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -679,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,52 +1063,156 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>526</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Thu Vân</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
         <v>100000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,82 +456,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -566,59 +591,76 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>17730000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
         <v>17730000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>14730000</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>14730000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
         <v>100000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>50000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3682500</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -647,112 +689,243 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KCH</t>
+          <t>Khách cửa hàng</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Nâng cung chân mày</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3700000</v>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
       <c r="K3" t="n">
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>3700000</v>
+        <v/>
       </c>
       <c r="M3" t="n">
         <v>3700000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3700000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>3700000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>148000</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>21430000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>541</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xuân diệu </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1200000</v>
+      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L4" t="n">
-        <v>21430000</v>
+        <v/>
       </c>
       <c r="M4" t="n">
-        <v>18430000</v>
+        <v>1200000</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="O4" t="n">
-        <v>18430000</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>1200000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
       <c r="U4" t="n">
-        <v>150000</v>
+        <v/>
       </c>
       <c r="V4" t="n">
         <v>50000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>22630000</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22630000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19630000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>19630000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>200000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3950500</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,82 +980,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -917,61 +1115,78 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4000000</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2000000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6000000</v>
       </c>
       <c r="M2" t="n">
         <v>6000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>6000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
         <v>50000</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>820000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="3">
@@ -1005,24 +1220,26 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
-      </c>
-      <c r="K3" t="n">
-        <v>3000000</v>
       </c>
       <c r="L3" t="n">
         <v>3000000</v>
@@ -1031,22 +1248,22 @@
         <v>3000000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>3000000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
       <c r="S3" t="n">
         <v/>
       </c>
@@ -1054,10 +1271,25 @@
         <v/>
       </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>120000</v>
       </c>
     </row>
     <row r="4">
@@ -1091,48 +1323,50 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Phun mày</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>500000</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1000000</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1500000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1000000</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1000000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>500000</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
       <c r="S4" t="n">
         <v/>
       </c>
@@ -1144,54 +1378,290 @@
       </c>
       <c r="V4" t="n">
         <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>535</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phan Minh Nguyệt</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>400000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>900000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>900000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>900000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>538</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2375000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10500000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>500000</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>14400000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29400000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>20400000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20400000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3375000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>238000</v>
       </c>
     </row>
   </sheetData>
@@ -1205,14 +1675,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3830500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>238000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,7 +592,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -620,13 +621,13 @@
         <v>14730000</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="P2" t="n">
-        <v>14730000</v>
+        <v>17730000</v>
       </c>
       <c r="Q2" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -651,13 +652,13 @@
         <v>50000</v>
       </c>
       <c r="X2" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>3682500</v>
+        <v>1773000</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -694,7 +695,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -797,7 +798,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -870,61 +871,469 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>545</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phạm Thị Tuyết Nhi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>280000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>556</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nguyễn Bảo Hân</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>130000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>564</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Đặng Thị Ngọc Huyền</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>105000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>565</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>22630000</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>22630000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>19630000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>19630000</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>45780000</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>45780000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>42780000</v>
+      </c>
+      <c r="O9" t="n">
         <v>3000000</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>200000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>3950500</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="P9" t="n">
+        <v>45780000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>400000</v>
+      </c>
+      <c r="W9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4356000</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1115,7 +1524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1177,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="Y2" t="n">
         <v>0.04</v>
       </c>
       <c r="Z2" t="n">
-        <v>820000</v>
+        <v>700000</v>
       </c>
       <c r="AA2" t="n">
         <v>80000</v>
@@ -1220,7 +1629,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1323,7 +1732,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1354,13 +1763,13 @@
         <v>1000000</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P4" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="Q4" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -1392,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5">
@@ -1426,7 +1835,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1529,7 +1938,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1591,13 +2000,13 @@
         <v>50000</v>
       </c>
       <c r="X6" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y6" t="n">
         <v>0.04</v>
       </c>
       <c r="Z6" t="n">
-        <v>2375000</v>
+        <v>950000</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1633,13 +2042,13 @@
         <v>20400000</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P7" t="n">
-        <v>20400000</v>
+        <v>20900000</v>
       </c>
       <c r="Q7" t="n">
-        <v>9000000</v>
+        <v>8500000</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -1652,16 +2061,16 @@
         <v>50000</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Y7" t="n">
         <v>0.16</v>
       </c>
       <c r="Z7" t="n">
-        <v>3375000</v>
+        <v>1830000</v>
       </c>
       <c r="AA7" t="n">
-        <v>238000</v>
+        <v>248000</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +2084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,6 +2095,339 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>59e6b0af-58c2-40e0-acb9-74a39fc79966</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>144</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7fd92044-b934-43de-9646-21004f1e6711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-502</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục</t>
         </is>
       </c>
@@ -1700,7 +2442,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1710,7 +2452,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="4">
@@ -1720,7 +2462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>2571428.571428571</v>
       </c>
     </row>
     <row r="5">
@@ -1730,7 +2472,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3830500</v>
+        <v>4236000</v>
       </c>
     </row>
     <row r="6">
@@ -1740,7 +2482,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238000</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="7">
@@ -1786,27 +2528,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>-350000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1816,7 +2558,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1826,7 +2568,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1836,7 +2578,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1846,7 +2588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1856,57 +2598,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1916,11 +2658,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>11465428.57142857</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11845428.57142857</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
+++ b/report_ca_nhan/NV-11 Đỗ Thị Huyền Trân 7-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,107 +457,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -595,73 +530,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H2" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>17730000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>17730000</v>
       </c>
       <c r="M2" t="n">
-        <v>17730000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>14730000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1773000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -695,76 +583,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Nâng cung chân mày</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H3" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>3700000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>3700000</v>
       </c>
       <c r="M3" t="n">
-        <v>3700000</v>
+        <v>0.04</v>
       </c>
       <c r="N3" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>148000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -798,74 +639,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>1200000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>1200000</v>
       </c>
       <c r="M4" t="n">
-        <v>1200000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>120000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,74 +695,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H5" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>2800000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>2800000</v>
       </c>
       <c r="M5" t="n">
-        <v>2800000</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>280000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1000,74 +751,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Tiêm botox</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
       <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>1300000</v>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
       <c r="L6" t="n">
-        <v/>
+        <v>1300000</v>
       </c>
       <c r="M6" t="n">
-        <v>1300000</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>130000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,74 +807,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
       <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
         <v>1050000</v>
       </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
       <c r="L7" t="n">
-        <v/>
+        <v>1050000</v>
       </c>
       <c r="M7" t="n">
-        <v>1050000</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>105000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1205,75 +866,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H8" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
       <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
         <v>18000000</v>
       </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
       <c r="L8" t="n">
-        <v/>
+        <v>18000000</v>
       </c>
       <c r="M8" t="n">
-        <v>18000000</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>1800000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,51 +902,24 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>45780000</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>45780000</v>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>45780000</v>
       </c>
       <c r="M9" t="n">
-        <v>45780000</v>
+        <v>0.64</v>
       </c>
       <c r="N9" t="n">
-        <v>42780000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>45780000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
-        <v>400000</v>
-      </c>
-      <c r="W9" t="n">
-        <v>100000</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
         <v>4356000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,105 +974,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
         <is>
           <t>Chiết khấu sale phụ</t>
         </is>
@@ -1524,77 +1044,30 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>4000000</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6000000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="M2" t="n">
-        <v>6000000</v>
+        <v>0.04</v>
       </c>
       <c r="N2" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>700000</v>
-      </c>
-      <c r="AA2" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -1629,75 +1102,30 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3000000</v>
       </c>
       <c r="L3" t="n">
         <v>3000000</v>
       </c>
       <c r="M3" t="n">
-        <v>3000000</v>
+        <v>0.04</v>
       </c>
       <c r="N3" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AA3" t="n">
         <v>120000</v>
       </c>
     </row>
@@ -1732,75 +1160,30 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H4" t="n">
+        <v>500000</v>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>1000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1500000</v>
       </c>
       <c r="L4" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="M4" t="n">
-        <v>1500000</v>
+        <v>0.02</v>
       </c>
       <c r="N4" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
         <v>30000</v>
       </c>
     </row>
@@ -1835,75 +1218,30 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>500000</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>400000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>900000</v>
       </c>
       <c r="L5" t="n">
-        <v>400000</v>
+        <v>900000</v>
       </c>
       <c r="M5" t="n">
-        <v>900000</v>
+        <v>0.02</v>
       </c>
       <c r="N5" t="n">
-        <v>900000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>900000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
         <v>18000</v>
       </c>
     </row>
@@ -1941,74 +1279,27 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
+      <c r="H6" t="n">
+        <v>10000000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>8000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18000000</v>
       </c>
       <c r="L6" t="n">
-        <v>8000000</v>
+        <v>9500000</v>
       </c>
       <c r="M6" t="n">
-        <v>18000000</v>
+        <v>0.04</v>
       </c>
       <c r="N6" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>950000</v>
-      </c>
-      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,50 +1317,23 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>15000000</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>14400000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>29400000</v>
+      </c>
       <c r="L7" t="n">
-        <v>14400000</v>
+        <v>20900000</v>
       </c>
       <c r="M7" t="n">
-        <v>29400000</v>
+        <v>0.16</v>
       </c>
       <c r="N7" t="n">
-        <v>20400000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>500000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>20900000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1830000</v>
-      </c>
-      <c r="AA7" t="n">
         <v>248000</v>
       </c>
     </row>
@@ -2084,7 +1348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,97 +1359,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -2195,214 +1459,181 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-30-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>59e6b0af-58c2-40e0-acb9-74a39fc79966</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>144</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-502</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7fd92044-b934-43de-9646-21004f1e6711</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2000000</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-502</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>8450000</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>2850000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4850000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v/>
-      </c>
-      <c r="Y2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2000000</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="K3" t="n">
         <v>8450000</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>8450000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4850000</v>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>2850000</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>4850000</v>
+        <v>0.1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.13</v>
+        <v>200000</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2417,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,7 +1659,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -2442,7 +1673,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -2452,7 +1683,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560000</v>
+        <v>595000</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +1693,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2571428.571428571</v>
+        <v>2732142.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -2528,37 +1759,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>-350000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2568,7 +1799,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2578,7 +1809,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2588,7 +1819,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2598,7 +1829,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2608,57 +1839,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260000</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2668,7 +1899,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2678,7 +1909,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2688,51 +1919,81 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11465428.57142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>380000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7461142.857142857</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>11845428.57142857</v>
+      <c r="B34" t="n">
+        <v>7781142.857142857</v>
       </c>
     </row>
   </sheetData>
